--- a/数据整理/stocks/A股/科创板/688180-君实生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688180-君实生物.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>19.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>85.84</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.92</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1331</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>18.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>92.78</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.75</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6799</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>72.34</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2.68</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4527</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -632,15 +682,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>18.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>90.79</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>7.89</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4391</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -660,15 +720,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>18.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>78.67</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.80</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8645</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -688,15 +758,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>17.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>73.90</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.37</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5759</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688180-君实生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688180-君实生物.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501082</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4475</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501079</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8676</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501080</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中金科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5787</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688180-君实生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688180-君实生物.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -954,4 +955,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688180-君实生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688180-君实生物.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -963,7 +964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -974,17 +975,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -994,14 +1015,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.89</v>
+          <t>501005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9670</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1010,14 +1053,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.88</v>
+          <t>501006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2762</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1026,13 +1091,323 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2460</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006279</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>62.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1148</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005396</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中金丰硕混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>65.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006280</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>62.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
         <v>2.27</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688180-君实生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688180-君实生物.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1322,7 +1323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1333,17 +1334,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1353,14 +1374,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.77</v>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>226.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.2520</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1369,14 +1412,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.89</v>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>105.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.3103</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1385,14 +1450,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.88</v>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>39.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6016</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1401,13 +1488,1897 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>012541</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰产业升级混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1453</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1280</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8438</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501005</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8425</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6014</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004040</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6011</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011201</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4132</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004041</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4028</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519909</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3727</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161122</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3005</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>210004</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金鹰稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2781</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2702</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501006</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2464</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2096</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>210005</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金鹰主题优势混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1931</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>515750</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国中证科技50策略ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1914</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009968</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1782</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1547</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006279</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>59.54</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1495</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1320</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013037</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长城大健康混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>39.47</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1245</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005396</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中金丰硕混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>71.47</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000684</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长盛养老健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>588280</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安上证科创板50ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008412</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009969</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012542</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>金鹰产业升级混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003284</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中邮医药健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>75.04</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005815</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>农银汇理睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>70.36</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006072</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008413</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006181</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011202</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006182</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>013038</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长城大健康混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>39.47</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010001</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010002</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006280</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>59.54</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
         <v>2.27</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688180-君实生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688180-君实生物.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3277,7 +3278,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3288,17 +3289,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3308,14 +3329,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>50</v>
-      </c>
-      <c r="D2" t="n">
-        <v>24.9</v>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>282.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.9967</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3324,14 +3367,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.77</v>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>127.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6287</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3340,14 +3405,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.89</v>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2532</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3356,14 +3443,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.88</v>
+          <t>009909</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0350</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -3372,13 +3481,1039 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>012852</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9742</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>32.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9119</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>37.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8173</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4420</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161122</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2373</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2337</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002300</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长盛医疗行业量化配置股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2101</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>210005</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>金鹰主题优势混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1449</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009910</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000684</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长盛养老健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006279</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>71.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005396</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中金丰硕混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008412</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012853</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>588280</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安上证科创板50ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008413</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>690003</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>民生加银精选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006280</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>71.56</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="n">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
         <v>2.27</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688180-君实生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688180-君实生物.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>18.75</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
-        <v>24.9</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>1.77</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>2.89</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
         <v>2.27</v>
       </c>
     </row>
@@ -583,6 +600,442 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012852</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7467</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4980</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2277</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002300</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长盛医疗行业量化配置股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1465</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000684</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长盛养老健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012853</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008412</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008413</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1700,7 +2153,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3654,7 +4107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4005,176 +4458,6 @@
       </c>
       <c r="H9" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>501082</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时科创主题 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>22.94</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>96.97</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.31</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.4475</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>501079</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>22.02</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>83.09</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.8676</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>501080</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中金科创主题 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>19.75</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>85.09</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5787</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4249,26 +4532,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18.24</t>
+          <t>22.94</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.79</t>
+          <t>96.97</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.89</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.4391</t>
+          <t>1.4475</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -4287,22 +4570,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18.01</t>
+          <t>22.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>78.67</t>
+          <t>83.09</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8645</t>
+          <t>0.8676</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -4325,22 +4608,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17.09</t>
+          <t>19.75</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>73.90</t>
+          <t>85.09</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5759</t>
+          <t>0.5787</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -4353,6 +4636,176 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501082</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4391</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501079</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8645</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501080</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中金科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5759</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688180-君实生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688180-君实生物.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D2" t="n">
-        <v>1.82</v>
+        <v>8.59</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>18.75</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
-        <v>24.9</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>1.77</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>2.89</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
         <v>2.27</v>
       </c>
     </row>
@@ -600,6 +617,1770 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001616</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实环保低碳股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5287</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0001</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009909</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8426</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012852</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8335</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5732</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009686</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4826</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160813</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长盛同盛成长优选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3874</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004041</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2857</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010885</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2824</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2499</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002300</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长盛医疗行业量化配置股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2218</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161122</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2127</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012093</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>75.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2008</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1636</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009800</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1351</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014313</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华创新增长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>60.62</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1194</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>210005</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金鹰主题优势混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015697</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏磐润两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004040</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000684</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长盛养老健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009910</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010155</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.35</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012853</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008412</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015698</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏磐润两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014885</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长盛匠心研究混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>62.25</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010886</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008413</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014886</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长盛匠心研究混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>62.25</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009687</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005083</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>诺德量化蓝筹增强混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>516560</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华宝养老ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010156</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>83.35</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009801</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012094</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>75.32</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>73.80</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014314</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏华创新增长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>60.62</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>73.80</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005082</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>诺德量化蓝筹增强混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1035,7 +2816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2153,7 +3934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4107,7 +5888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4458,176 +6239,6 @@
       </c>
       <c r="H9" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>501082</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时科创主题 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>22.94</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>96.97</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.31</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.4475</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>501079</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>22.02</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>83.09</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.8676</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>501080</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中金科创主题 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>19.75</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>85.09</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5787</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4702,26 +6313,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18.24</t>
+          <t>22.94</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.79</t>
+          <t>96.97</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.89</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.4391</t>
+          <t>1.4475</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -4740,22 +6351,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18.01</t>
+          <t>22.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>78.67</t>
+          <t>83.09</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8645</t>
+          <t>0.8676</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -4778,22 +6389,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17.09</t>
+          <t>19.75</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>73.90</t>
+          <t>85.09</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5759</t>
+          <t>0.5787</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -4806,6 +6417,176 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501082</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4391</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501079</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8645</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501080</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中金科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5759</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
